--- a/Projects/PSAPAC_SAND3/Data/gskau_external_target.xlsx
+++ b/Projects/PSAPAC_SAND3/Data/gskau_external_target.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Secondary_Display" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Terry White Rules" sheetId="2" state="hidden" r:id="rId3"/>
     <sheet name="Super_Brand_Block" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Super_Brand_SOS" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Brand_Presence" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Brand_FSOS" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Brand_Position" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Brand_Sequence" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="All other Banners" sheetId="8" state="hidden" r:id="rId9"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="159">
   <si>
     <t xml:space="preserve">Store Number</t>
   </si>
@@ -384,13 +384,13 @@
     <t xml:space="preserve">SOS Threshold %</t>
   </si>
   <si>
-    <t xml:space="preserve">GSK_LAYOUT_COMPLIANCE_FSOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSK_LAYOUT_COMPLIANCE_PRESENCE</t>
+    <t xml:space="preserve">GSK_LAYOUT_COMPLIANCE_SBRAND_FSOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS Threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSK_LAYOUT_COMPLIANCE_BRAND_FSOS</t>
   </si>
   <si>
     <t xml:space="preserve">Wellness Main Shelf, Wellness Main Shelf - Grcy</t>
@@ -420,7 +420,7 @@
     <t xml:space="preserve">3,4</t>
   </si>
   <si>
-    <t xml:space="preserve">Sub Brand</t>
+    <t xml:space="preserve">Panadol Extra</t>
   </si>
   <si>
     <t xml:space="preserve">Sequence</t>
@@ -432,19 +432,13 @@
     <t xml:space="preserve">GSK_LAYOUT_COMPLIANCE_SEQUENCE</t>
   </si>
   <si>
-    <t xml:space="preserve">Extra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osteo, Extra, Rapid, Optizorb, Mini, C&amp;F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Below or Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rapid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osteo</t>
+    <t xml:space="preserve">Panadol Osteo, Panadol Extra, Panadol Rapid, Panadol Optizorb, Panadol Mini, Panadol Base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Below or Same level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panadol Base</t>
   </si>
   <si>
     <t xml:space="preserve">Section</t>
@@ -522,7 +516,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
     <numFmt numFmtId="167" formatCode="0%"/>
-    <numFmt numFmtId="168" formatCode="0"/>
+    <numFmt numFmtId="168" formatCode="0;[RED]0"/>
     <numFmt numFmtId="169" formatCode="MMM\ DD"/>
   </numFmts>
   <fonts count="8">
@@ -1087,7 +1081,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1146,7 +1140,7 @@
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF00FF66"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -1217,15 +1211,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="9.10526315789474"/>
   </cols>
@@ -1427,21 +1421,21 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="6" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="6" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="40.5991902834008"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="6" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="6" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="6" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="6" width="9.10526315789474"/>
   </cols>
@@ -5558,20 +5552,20 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="48" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="48" width="32.4574898785425"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="48" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="35.6720647773279"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="48" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="48" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="48" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="48" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="49" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="50" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="49" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="50" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="50" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="50" width="9.10526315789474"/>
   </cols>
@@ -5948,19 +5942,19 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.4898785425101"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.6720647773279"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
   </cols>
@@ -6332,26 +6326,27 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF00FF66"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.4534412955466"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="49" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="49" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="49" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="55.7004048582996"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="49" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="49" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="49" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6368,18 +6363,21 @@
         <v>108</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="H1" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="I1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="J1" s="51" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6396,19 +6394,22 @@
       <c r="D2" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="G2" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="55" t="n">
+      <c r="H2" s="62" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2" s="55" t="n">
         <v>43876</v>
       </c>
-      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="58" t="s">
@@ -6423,19 +6424,22 @@
       <c r="D3" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="31" t="s">
-        <v>60</v>
+      <c r="E3" s="58" t="s">
+        <v>52</v>
       </c>
       <c r="F3" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="55" t="n">
+      <c r="H3" s="62" t="n">
+        <v>15</v>
+      </c>
+      <c r="I3" s="55" t="n">
         <v>43876</v>
       </c>
-      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="58" t="s">
@@ -6450,19 +6454,22 @@
       <c r="D4" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="31" t="s">
-        <v>63</v>
+      <c r="E4" s="58" t="s">
+        <v>52</v>
       </c>
       <c r="F4" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="55" t="n">
+      <c r="H4" s="62" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" s="55" t="n">
         <v>43876</v>
       </c>
-      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="58" t="s">
@@ -6477,19 +6484,22 @@
       <c r="D5" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>65</v>
+      <c r="E5" s="58" t="s">
+        <v>52</v>
       </c>
       <c r="F5" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="55" t="n">
+      <c r="H5" s="62" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" s="55" t="n">
         <v>43876</v>
       </c>
-      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="58" t="s">
@@ -6504,19 +6514,22 @@
       <c r="D6" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="31" t="s">
-        <v>66</v>
+      <c r="E6" s="58" t="s">
+        <v>52</v>
       </c>
       <c r="F6" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="G6" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="55" t="n">
+      <c r="H6" s="62" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" s="55" t="n">
         <v>43876</v>
       </c>
-      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="58" t="s">
@@ -6531,19 +6544,22 @@
       <c r="D7" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="31" t="s">
-        <v>68</v>
+      <c r="E7" s="58" t="s">
+        <v>52</v>
       </c>
       <c r="F7" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="55" t="n">
+      <c r="H7" s="62" t="n">
+        <v>15</v>
+      </c>
+      <c r="I7" s="55" t="n">
         <v>43876</v>
       </c>
-      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="58" t="s">
@@ -6558,19 +6574,22 @@
       <c r="D8" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>62</v>
+      <c r="E8" s="58" t="s">
+        <v>52</v>
       </c>
       <c r="F8" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="G8" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="55" t="n">
+      <c r="H8" s="62" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" s="55" t="n">
         <v>43876</v>
       </c>
-      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="58" t="s">
@@ -6585,19 +6604,22 @@
       <c r="D9" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="39" t="s">
-        <v>97</v>
+      <c r="E9" s="58" t="s">
+        <v>52</v>
       </c>
       <c r="F9" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="55" t="n">
+      <c r="H9" s="62" t="n">
+        <v>15</v>
+      </c>
+      <c r="I9" s="55" t="n">
         <v>43876</v>
       </c>
-      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="58" t="s">
@@ -6612,19 +6634,22 @@
       <c r="D10" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="39" t="s">
-        <v>91</v>
+      <c r="E10" s="58" t="s">
+        <v>52</v>
       </c>
       <c r="F10" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="G10" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="55" t="n">
+      <c r="H10" s="62" t="n">
+        <v>15</v>
+      </c>
+      <c r="I10" s="55" t="n">
         <v>43876</v>
       </c>
-      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="58" t="s">
@@ -6639,19 +6664,22 @@
       <c r="D11" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="39" t="s">
-        <v>92</v>
+      <c r="E11" s="58" t="s">
+        <v>52</v>
       </c>
       <c r="F11" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="55" t="n">
+      <c r="H11" s="62" t="n">
+        <v>15</v>
+      </c>
+      <c r="I11" s="55" t="n">
         <v>43876</v>
       </c>
-      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6669,26 +6697,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.0971659919028"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8825910931174"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="49" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="49" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.57085020242915"/>
   </cols>
@@ -6750,13 +6778,13 @@
       <c r="D2" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="49" t="n">
+      <c r="G2" s="60" t="n">
         <v>80</v>
       </c>
       <c r="H2" s="58" t="s">
@@ -6792,13 +6820,13 @@
       <c r="D3" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="58" t="s">
+      <c r="E3" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="49" t="n">
+      <c r="G3" s="60" t="n">
         <v>80</v>
       </c>
       <c r="H3" s="58" t="s">
@@ -6834,13 +6862,13 @@
       <c r="D4" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="49" t="n">
+      <c r="G4" s="60" t="n">
         <v>80</v>
       </c>
       <c r="H4" s="58" t="s">
@@ -6876,13 +6904,13 @@
       <c r="D5" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="49" t="n">
+      <c r="G5" s="60" t="n">
         <v>80</v>
       </c>
       <c r="H5" s="58" t="s">
@@ -6918,13 +6946,13 @@
       <c r="D6" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="G6" s="49" t="n">
+      <c r="G6" s="60" t="n">
         <v>80</v>
       </c>
       <c r="H6" s="58" t="s">
@@ -6960,13 +6988,13 @@
       <c r="D7" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="49" t="n">
+      <c r="G7" s="60" t="n">
         <v>80</v>
       </c>
       <c r="H7" s="58" t="s">
@@ -6988,174 +7016,6 @@
         <v>43876</v>
       </c>
       <c r="N7" s="58"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="49" t="n">
-        <v>80</v>
-      </c>
-      <c r="H8" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="I8" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="J8" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="K8" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="L8" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="M8" s="55" t="n">
-        <v>43876</v>
-      </c>
-      <c r="N8" s="58"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" s="49" t="n">
-        <v>80</v>
-      </c>
-      <c r="H9" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="I9" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="J9" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="K9" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="L9" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="M9" s="55" t="n">
-        <v>43876</v>
-      </c>
-      <c r="N9" s="58"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="G10" s="49" t="n">
-        <v>80</v>
-      </c>
-      <c r="H10" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="I10" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="J10" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="K10" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="M10" s="55" t="n">
-        <v>43876</v>
-      </c>
-      <c r="N10" s="58"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" s="49" t="n">
-        <v>80</v>
-      </c>
-      <c r="H11" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="I11" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="J11" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="K11" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="L11" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="M11" s="55" t="n">
-        <v>43876</v>
-      </c>
-      <c r="N11" s="58"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7173,24 +7033,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.7408906882591"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="79.8016194331984"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7207,7 +7067,7 @@
         <v>108</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>131</v>
@@ -7216,119 +7076,314 @@
         <v>132</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="G2" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="H2" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="55" t="n">
+        <v>43876</v>
+      </c>
+      <c r="J2" s="63"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="55" t="n">
+        <v>43876</v>
+      </c>
+      <c r="J3" s="63"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="55" t="n">
+        <v>43876</v>
+      </c>
+      <c r="J4" s="63"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="55" t="n">
+        <v>43876</v>
+      </c>
+      <c r="J5" s="63"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="55" t="n">
+      <c r="F6" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="55" t="n">
         <v>43876</v>
       </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="59" t="s">
+      <c r="J6" s="63"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B7" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C7" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D7" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="63" t="s">
+      <c r="E7" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="H7" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="55" t="n">
+        <v>43876</v>
+      </c>
+      <c r="J7" s="63"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="55" t="n">
+        <v>43876</v>
+      </c>
+      <c r="J8" s="63"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="55" t="n">
+        <v>43876</v>
+      </c>
+      <c r="J9" s="63"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" s="55" t="n">
+        <v>43876</v>
+      </c>
+      <c r="J10" s="63"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="55" t="n">
+      <c r="F11" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="55" t="n">
         <v>43876</v>
       </c>
-      <c r="I3" s="59"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="H4" s="55" t="n">
-        <v>43876</v>
-      </c>
-      <c r="I4" s="59"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="H5" s="55" t="n">
-        <v>43876</v>
-      </c>
-      <c r="I5" s="59"/>
+      <c r="J11" s="63"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7356,21 +7411,21 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="6" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="6" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="39.9554655870445"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="6" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="6" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="6" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="6" width="9.10526315789474"/>
   </cols>
@@ -9467,7 +9522,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>40</v>
@@ -10083,7 +10138,7 @@
         <v>78</v>
       </c>
       <c r="K20" s="31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L20" s="31"/>
       <c r="M20" s="31" t="s">
@@ -10125,7 +10180,7 @@
         <v>79</v>
       </c>
       <c r="K21" s="31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L21" s="32" t="s">
         <v>54</v>
@@ -10906,19 +10961,19 @@
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="6" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="8" min="2" style="6" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="2" style="6" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="12" min="10" style="6" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="64" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="64" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="64" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="6" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="65" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
@@ -10932,7 +10987,7 @@
     <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
       <c r="B2" s="66" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -10945,7 +11000,7 @@
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0"/>
       <c r="B3" s="66" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="66"/>
@@ -10968,7 +11023,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="68" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5" s="69"/>
       <c r="C5" s="69"/>
@@ -10981,7 +11036,7 @@
     </row>
     <row r="6" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="70" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="70" t="s">
         <v>55</v>
@@ -11013,28 +11068,28 @@
         <v>8</v>
       </c>
       <c r="B7" s="72" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C7" s="72" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D7" s="73" t="s">
         <v>129</v>
       </c>
       <c r="E7" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="H7" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="H7" s="73" t="s">
-        <v>152</v>
-      </c>
       <c r="I7" s="73" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11042,28 +11097,28 @@
         <v>9</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D8" s="73" t="s">
         <v>129</v>
       </c>
       <c r="E8" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="F8" s="73" t="s">
+      <c r="H8" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="G8" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="H8" s="73" t="s">
-        <v>152</v>
-      </c>
       <c r="I8" s="73" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11071,28 +11126,28 @@
         <v>10</v>
       </c>
       <c r="B9" s="72" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D9" s="73" t="s">
         <v>129</v>
       </c>
       <c r="E9" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="H9" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="G9" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="H9" s="73" t="s">
-        <v>152</v>
-      </c>
       <c r="I9" s="73" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11100,28 +11155,28 @@
         <v>11</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D10" s="73" t="s">
         <v>129</v>
       </c>
       <c r="E10" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="H10" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="G10" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="H10" s="73" t="s">
-        <v>152</v>
-      </c>
       <c r="I10" s="73" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11129,28 +11184,28 @@
         <v>12</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C11" s="72" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D11" s="73" t="s">
         <v>129</v>
       </c>
       <c r="E11" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="H11" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="G11" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="H11" s="73" t="s">
-        <v>152</v>
-      </c>
       <c r="I11" s="73" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11162,7 +11217,7 @@
     </row>
     <row r="13" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="70" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B13" s="70" t="s">
         <v>71</v>
@@ -11182,16 +11237,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C14" s="72" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D14" s="72" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E14" s="72" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11199,16 +11254,16 @@
         <v>9</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D15" s="72" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E15" s="72" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11216,16 +11271,16 @@
         <v>10</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="72" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D16" s="72" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E16" s="72" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11233,16 +11288,16 @@
         <v>11</v>
       </c>
       <c r="B17" s="72" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C17" s="72" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E17" s="72" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11250,16 +11305,16 @@
         <v>12</v>
       </c>
       <c r="B18" s="72" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C18" s="72" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D18" s="72" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E18" s="72" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11270,7 +11325,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="68" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -11278,7 +11333,7 @@
     </row>
     <row r="21" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="70" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B21" s="70" t="s">
         <v>78</v>
@@ -11296,7 +11351,7 @@
         <v>129</v>
       </c>
       <c r="C22" s="72" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D22" s="0"/>
     </row>
@@ -11308,7 +11363,7 @@
         <v>129</v>
       </c>
       <c r="C23" s="72" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D23" s="0"/>
     </row>
@@ -11320,7 +11375,7 @@
         <v>129</v>
       </c>
       <c r="C24" s="72" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D24" s="0"/>
     </row>
@@ -11332,7 +11387,7 @@
         <v>129</v>
       </c>
       <c r="C25" s="72" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D25" s="0"/>
     </row>
@@ -11344,7 +11399,7 @@
         <v>129</v>
       </c>
       <c r="C26" s="72" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D26" s="0"/>
     </row>
@@ -11364,10 +11419,10 @@
     </row>
     <row r="29" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="70" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B29" s="70" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C29" s="70" t="s">
         <v>83</v>
@@ -11387,7 +11442,7 @@
         <v>129</v>
       </c>
       <c r="D30" s="72" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11401,7 +11456,7 @@
         <v>129</v>
       </c>
       <c r="D31" s="72" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11415,7 +11470,7 @@
         <v>129</v>
       </c>
       <c r="D32" s="72" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11429,7 +11484,7 @@
         <v>129</v>
       </c>
       <c r="D33" s="72" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11443,7 +11498,7 @@
         <v>129</v>
       </c>
       <c r="D34" s="72" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11454,7 +11509,7 @@
     </row>
     <row r="36" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="68" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -11462,16 +11517,16 @@
     </row>
     <row r="37" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="70" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B37" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="70" t="s">
         <v>158</v>
-      </c>
-      <c r="C37" s="70" t="s">
-        <v>159</v>
-      </c>
-      <c r="D37" s="70" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11479,13 +11534,13 @@
         <v>8</v>
       </c>
       <c r="B38" s="72" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C38" s="72" t="s">
         <v>129</v>
       </c>
       <c r="D38" s="72" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11493,13 +11548,13 @@
         <v>9</v>
       </c>
       <c r="B39" s="72" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C39" s="72" t="s">
         <v>129</v>
       </c>
       <c r="D39" s="72" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11507,13 +11562,13 @@
         <v>10</v>
       </c>
       <c r="B40" s="72" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C40" s="72" t="s">
         <v>129</v>
       </c>
       <c r="D40" s="72" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11521,13 +11576,13 @@
         <v>11</v>
       </c>
       <c r="B41" s="72" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C41" s="72" t="s">
         <v>129</v>
       </c>
       <c r="D41" s="72" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11535,13 +11590,13 @@
         <v>12</v>
       </c>
       <c r="B42" s="72" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C42" s="72" t="s">
         <v>129</v>
       </c>
       <c r="D42" s="72" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/PSAPAC_SAND3/Data/gskau_external_target.xlsx
+++ b/Projects/PSAPAC_SAND3/Data/gskau_external_target.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="158">
   <si>
     <t xml:space="preserve">Store Number</t>
   </si>
@@ -385,9 +385,6 @@
   </si>
   <si>
     <t xml:space="preserve">GSK_LAYOUT_COMPLIANCE_SBRAND_FSOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS Threshold</t>
   </si>
   <si>
     <t xml:space="preserve">GSK_LAYOUT_COMPLIANCE_BRAND_FSOS</t>
@@ -1211,14 +1208,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="34.0647773279352"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="9.10526315789474"/>
@@ -1421,21 +1418,21 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="6" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="6" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="6" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="41.2388663967611"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="6" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="6" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="6" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="6" width="9.10526315789474"/>
   </cols>
@@ -5558,13 +5555,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="48" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="48" width="32.8866396761134"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="48" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="36.3117408906883"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="48" width="13.8178137651822"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="48" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="48" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="49" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="49" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="50" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="50" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="50" width="9.10526315789474"/>
@@ -5942,18 +5939,18 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.919028340081"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3117408906883"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
@@ -6332,18 +6329,18 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.3481781376518"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.0971659919028"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="49" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="49" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="49" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="49" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
@@ -6372,7 +6369,7 @@
         <v>109</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I1" s="51" t="s">
         <v>11</v>
@@ -6383,7 +6380,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="58" t="s">
         <v>49</v>
@@ -6413,7 +6410,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" s="58" t="s">
         <v>49</v>
@@ -6443,7 +6440,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="58" t="s">
         <v>49</v>
@@ -6473,7 +6470,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="58" t="s">
         <v>49</v>
@@ -6503,7 +6500,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" s="58" t="s">
         <v>49</v>
@@ -6533,7 +6530,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="58" t="s">
         <v>116</v>
@@ -6563,7 +6560,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="58" t="s">
         <v>116</v>
@@ -6593,13 +6590,13 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="58" t="s">
         <v>116</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="58" t="s">
         <v>87</v>
@@ -6623,13 +6620,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="58" t="s">
         <v>116</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="58" t="s">
         <v>87</v>
@@ -6653,13 +6650,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" s="58" t="s">
         <v>116</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11" s="58" t="s">
         <v>87</v>
@@ -6695,21 +6692,22 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF9999FF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.6315789473684"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="49" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.1417004048583"/>
@@ -6741,22 +6739,22 @@
         <v>109</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>11</v>
@@ -6767,7 +6765,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="58" t="s">
         <v>49</v>
@@ -6788,19 +6786,19 @@
         <v>80</v>
       </c>
       <c r="H2" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I2" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J2" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K2" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L2" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M2" s="55" t="n">
         <v>43876</v>
@@ -6809,7 +6807,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="58" t="s">
         <v>49</v>
@@ -6821,7 +6819,7 @@
         <v>51</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F3" s="59" t="s">
         <v>113</v>
@@ -6830,19 +6828,19 @@
         <v>80</v>
       </c>
       <c r="H3" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I3" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J3" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K3" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L3" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M3" s="55" t="n">
         <v>43876</v>
@@ -6851,7 +6849,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="58" t="s">
         <v>49</v>
@@ -6872,19 +6870,19 @@
         <v>80</v>
       </c>
       <c r="H4" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I4" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J4" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K4" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L4" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M4" s="55" t="n">
         <v>43876</v>
@@ -6893,7 +6891,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="58" t="s">
         <v>49</v>
@@ -6914,19 +6912,19 @@
         <v>80</v>
       </c>
       <c r="H5" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I5" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K5" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L5" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M5" s="55" t="n">
         <v>43876</v>
@@ -6935,7 +6933,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" s="58" t="s">
         <v>49</v>
@@ -6956,19 +6954,19 @@
         <v>80</v>
       </c>
       <c r="H6" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I6" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J6" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K6" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L6" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M6" s="55" t="n">
         <v>43876</v>
@@ -6977,7 +6975,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="58" t="s">
         <v>116</v>
@@ -6998,19 +6996,19 @@
         <v>80</v>
       </c>
       <c r="H7" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I7" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J7" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K7" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L7" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M7" s="55" t="n">
         <v>43876</v>
@@ -7035,19 +7033,19 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.3846153846154"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="79.8016194331984"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="81.1943319838057"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
@@ -7070,10 +7068,10 @@
         <v>48</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>109</v>
@@ -7087,7 +7085,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="58" t="s">
         <v>49</v>
@@ -7099,13 +7097,13 @@
         <v>51</v>
       </c>
       <c r="E2" s="58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="58" t="s">
         <v>134</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>135</v>
       </c>
       <c r="H2" s="58" t="s">
         <v>113</v>
@@ -7117,7 +7115,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="58" t="s">
         <v>49</v>
@@ -7132,10 +7130,10 @@
         <v>63</v>
       </c>
       <c r="F3" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="58" t="s">
         <v>134</v>
-      </c>
-      <c r="G3" s="58" t="s">
-        <v>135</v>
       </c>
       <c r="H3" s="58" t="s">
         <v>113</v>
@@ -7147,7 +7145,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="58" t="s">
         <v>49</v>
@@ -7162,10 +7160,10 @@
         <v>65</v>
       </c>
       <c r="F4" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="58" t="s">
         <v>134</v>
-      </c>
-      <c r="G4" s="58" t="s">
-        <v>135</v>
       </c>
       <c r="H4" s="58" t="s">
         <v>113</v>
@@ -7177,7 +7175,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" s="58" t="s">
         <v>49</v>
@@ -7192,10 +7190,10 @@
         <v>66</v>
       </c>
       <c r="F5" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="58" t="s">
         <v>134</v>
-      </c>
-      <c r="G5" s="58" t="s">
-        <v>135</v>
       </c>
       <c r="H5" s="58" t="s">
         <v>113</v>
@@ -7207,7 +7205,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" s="58" t="s">
         <v>49</v>
@@ -7219,13 +7217,13 @@
         <v>51</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F6" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="58" t="s">
         <v>134</v>
-      </c>
-      <c r="G6" s="58" t="s">
-        <v>135</v>
       </c>
       <c r="H6" s="58" t="s">
         <v>113</v>
@@ -7237,7 +7235,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="58" t="s">
         <v>116</v>
@@ -7249,13 +7247,13 @@
         <v>51</v>
       </c>
       <c r="E7" s="58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F7" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="58" t="s">
         <v>134</v>
-      </c>
-      <c r="G7" s="58" t="s">
-        <v>135</v>
       </c>
       <c r="H7" s="58" t="s">
         <v>113</v>
@@ -7267,7 +7265,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="58" t="s">
         <v>116</v>
@@ -7282,10 +7280,10 @@
         <v>63</v>
       </c>
       <c r="F8" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="58" t="s">
         <v>134</v>
-      </c>
-      <c r="G8" s="58" t="s">
-        <v>135</v>
       </c>
       <c r="H8" s="58" t="s">
         <v>113</v>
@@ -7297,7 +7295,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="58" t="s">
         <v>116</v>
@@ -7312,10 +7310,10 @@
         <v>65</v>
       </c>
       <c r="F9" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="58" t="s">
         <v>134</v>
-      </c>
-      <c r="G9" s="58" t="s">
-        <v>135</v>
       </c>
       <c r="H9" s="58" t="s">
         <v>113</v>
@@ -7327,7 +7325,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="58" t="s">
         <v>116</v>
@@ -7342,10 +7340,10 @@
         <v>66</v>
       </c>
       <c r="F10" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="58" t="s">
         <v>134</v>
-      </c>
-      <c r="G10" s="58" t="s">
-        <v>135</v>
       </c>
       <c r="H10" s="58" t="s">
         <v>113</v>
@@ -7357,7 +7355,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="58" t="s">
         <v>116</v>
@@ -7369,13 +7367,13 @@
         <v>77</v>
       </c>
       <c r="E11" s="58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F11" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="58" t="s">
         <v>134</v>
-      </c>
-      <c r="G11" s="58" t="s">
-        <v>135</v>
       </c>
       <c r="H11" s="58" t="s">
         <v>113</v>
@@ -7411,21 +7409,21 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="6" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="6" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="6" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="40.5991902834008"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="6" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="6" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="6" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="6" width="9.10526315789474"/>
   </cols>
@@ -9522,7 +9520,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>40</v>
@@ -10138,7 +10136,7 @@
         <v>78</v>
       </c>
       <c r="K20" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L20" s="31"/>
       <c r="M20" s="31" t="s">
@@ -10180,7 +10178,7 @@
         <v>79</v>
       </c>
       <c r="K21" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L21" s="32" t="s">
         <v>54</v>
@@ -10961,19 +10959,18 @@
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="6" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="8" min="2" style="6" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="9" min="2" style="6" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="10" style="6" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="64" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="64" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="64" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="6" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
@@ -10987,7 +10984,7 @@
     <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
       <c r="B2" s="66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -11000,7 +10997,7 @@
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0"/>
       <c r="B3" s="66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="66"/>
@@ -11023,7 +11020,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" s="69"/>
       <c r="C5" s="69"/>
@@ -11036,7 +11033,7 @@
     </row>
     <row r="6" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="70" t="s">
         <v>55</v>
@@ -11068,28 +11065,28 @@
         <v>8</v>
       </c>
       <c r="B7" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="D7" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="73" t="s">
+      <c r="F7" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="G7" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="73" t="s">
+      <c r="H7" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="H7" s="73" t="s">
-        <v>150</v>
-      </c>
       <c r="I7" s="73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11097,28 +11094,28 @@
         <v>9</v>
       </c>
       <c r="B8" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="D8" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="73" t="s">
+      <c r="F8" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="F8" s="73" t="s">
+      <c r="G8" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="G8" s="73" t="s">
+      <c r="H8" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="H8" s="73" t="s">
-        <v>150</v>
-      </c>
       <c r="I8" s="73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11126,28 +11123,28 @@
         <v>10</v>
       </c>
       <c r="B9" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="D9" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="73" t="s">
+      <c r="F9" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="G9" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="G9" s="73" t="s">
+      <c r="H9" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="H9" s="73" t="s">
-        <v>150</v>
-      </c>
       <c r="I9" s="73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11155,28 +11152,28 @@
         <v>11</v>
       </c>
       <c r="B10" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="D10" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="73" t="s">
+      <c r="F10" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="G10" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="G10" s="73" t="s">
+      <c r="H10" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="H10" s="73" t="s">
-        <v>150</v>
-      </c>
       <c r="I10" s="73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11184,28 +11181,28 @@
         <v>12</v>
       </c>
       <c r="B11" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="D11" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="D11" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="73" t="s">
+      <c r="F11" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="G11" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="G11" s="73" t="s">
+      <c r="H11" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="H11" s="73" t="s">
-        <v>150</v>
-      </c>
       <c r="I11" s="73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11217,7 +11214,7 @@
     </row>
     <row r="13" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B13" s="70" t="s">
         <v>71</v>
@@ -11237,16 +11234,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D14" s="72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E14" s="72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11254,16 +11251,16 @@
         <v>9</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D15" s="72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E15" s="72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11271,16 +11268,16 @@
         <v>10</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E16" s="72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11288,16 +11285,16 @@
         <v>11</v>
       </c>
       <c r="B17" s="72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E17" s="72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11305,16 +11302,16 @@
         <v>12</v>
       </c>
       <c r="B18" s="72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" s="72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D18" s="72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E18" s="72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11325,7 +11322,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -11333,7 +11330,7 @@
     </row>
     <row r="21" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" s="70" t="s">
         <v>78</v>
@@ -11348,10 +11345,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C22" s="72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D22" s="0"/>
     </row>
@@ -11360,10 +11357,10 @@
         <v>9</v>
       </c>
       <c r="B23" s="72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D23" s="0"/>
     </row>
@@ -11372,10 +11369,10 @@
         <v>10</v>
       </c>
       <c r="B24" s="72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D24" s="0"/>
     </row>
@@ -11384,10 +11381,10 @@
         <v>11</v>
       </c>
       <c r="B25" s="72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D25" s="0"/>
     </row>
@@ -11396,10 +11393,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C26" s="72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D26" s="0"/>
     </row>
@@ -11419,10 +11416,10 @@
     </row>
     <row r="29" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B29" s="70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C29" s="70" t="s">
         <v>83</v>
@@ -11436,13 +11433,13 @@
         <v>8</v>
       </c>
       <c r="B30" s="72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C30" s="72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D30" s="72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11450,13 +11447,13 @@
         <v>9</v>
       </c>
       <c r="B31" s="72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C31" s="72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D31" s="72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11464,13 +11461,13 @@
         <v>10</v>
       </c>
       <c r="B32" s="72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C32" s="72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D32" s="72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11478,13 +11475,13 @@
         <v>11</v>
       </c>
       <c r="B33" s="72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C33" s="72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D33" s="72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11492,13 +11489,13 @@
         <v>12</v>
       </c>
       <c r="B34" s="72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C34" s="72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D34" s="72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11509,7 +11506,7 @@
     </row>
     <row r="36" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -11517,16 +11514,16 @@
     </row>
     <row r="37" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B37" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="C37" s="70" t="s">
+      <c r="D37" s="70" t="s">
         <v>157</v>
-      </c>
-      <c r="D37" s="70" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11534,13 +11531,13 @@
         <v>8</v>
       </c>
       <c r="B38" s="72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C38" s="72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D38" s="72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11548,13 +11545,13 @@
         <v>9</v>
       </c>
       <c r="B39" s="72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C39" s="72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D39" s="72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11562,13 +11559,13 @@
         <v>10</v>
       </c>
       <c r="B40" s="72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40" s="72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11576,13 +11573,13 @@
         <v>11</v>
       </c>
       <c r="B41" s="72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C41" s="72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11590,13 +11587,13 @@
         <v>12</v>
       </c>
       <c r="B42" s="72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C42" s="72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/PSAPAC_SAND3/Data/gskau_external_target.xlsx
+++ b/Projects/PSAPAC_SAND3/Data/gskau_external_target.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Secondary_Display" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="162">
   <si>
     <t xml:space="preserve">Store Number</t>
   </si>
@@ -436,6 +436,18 @@
   </si>
   <si>
     <t xml:space="preserve">Panadol Base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
   </si>
   <si>
     <t xml:space="preserve">Section</t>
@@ -599,7 +611,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF950E"/>
       </patternFill>
     </fill>
     <fill>
@@ -1176,9 +1188,9 @@
       <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFAECF00"/>
       <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF950E"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FFA6A6A6"/>
@@ -1208,14 +1220,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="34.3846153846154"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="9.10526315789474"/>
@@ -1418,21 +1430,21 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="6" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="6" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="6" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="41.5627530364373"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="6" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="6" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="6" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="6" width="9.10526315789474"/>
   </cols>
@@ -5549,19 +5561,19 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="48" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="48" width="33.1012145748988"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="48" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="36.6356275303644"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="48" width="13.8178137651822"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="48" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="48" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="49" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="49" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="50" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="50" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="50" width="9.10526315789474"/>
@@ -5934,23 +5946,24 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFFF950E"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.2429149797571"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.6356275303644"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
@@ -6328,19 +6341,20 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.0971659919028"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.0404858299595"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.4534412955466"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.5303643724696"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="49" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="49" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="49" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="49" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
@@ -6698,16 +6712,16 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.6315789473684"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.0607287449393"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="49" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.1417004048583"/>
@@ -7029,23 +7043,24 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFAECF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.5263157894737"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.5991902834008"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="81.1943319838057"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="81.9473684210526"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
@@ -7382,6 +7397,26 @@
         <v>43876</v>
       </c>
       <c r="J11" s="63"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7409,21 +7444,21 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="6" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="6" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="6" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="40.919028340081"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="6" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="6" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="6" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="6" width="9.10526315789474"/>
   </cols>
@@ -9520,7 +9555,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>40</v>
@@ -10136,7 +10171,7 @@
         <v>78</v>
       </c>
       <c r="K20" s="31" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L20" s="31"/>
       <c r="M20" s="31" t="s">
@@ -10178,7 +10213,7 @@
         <v>79</v>
       </c>
       <c r="K21" s="31" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L21" s="32" t="s">
         <v>54</v>
@@ -10961,16 +10996,16 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="6" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="9" min="2" style="6" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="10" style="6" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="64" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="64" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="64" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="6" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="65" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
@@ -10984,7 +11019,7 @@
     <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
       <c r="B2" s="66" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -10997,7 +11032,7 @@
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0"/>
       <c r="B3" s="66" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="66"/>
@@ -11020,7 +11055,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="68" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B5" s="69"/>
       <c r="C5" s="69"/>
@@ -11033,7 +11068,7 @@
     </row>
     <row r="6" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="70" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B6" s="70" t="s">
         <v>55</v>
@@ -11065,28 +11100,28 @@
         <v>8</v>
       </c>
       <c r="B7" s="72" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C7" s="72" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D7" s="73" t="s">
         <v>128</v>
       </c>
       <c r="E7" s="73" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F7" s="73" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G7" s="73" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H7" s="73" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I7" s="73" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11094,28 +11129,28 @@
         <v>9</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D8" s="73" t="s">
         <v>128</v>
       </c>
       <c r="E8" s="73" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F8" s="73" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G8" s="73" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H8" s="73" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I8" s="73" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11123,28 +11158,28 @@
         <v>10</v>
       </c>
       <c r="B9" s="72" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D9" s="73" t="s">
         <v>128</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F9" s="73" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G9" s="73" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H9" s="73" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I9" s="73" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11152,28 +11187,28 @@
         <v>11</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D10" s="73" t="s">
         <v>128</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F10" s="73" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G10" s="73" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H10" s="73" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I10" s="73" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11181,28 +11216,28 @@
         <v>12</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C11" s="72" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D11" s="73" t="s">
         <v>128</v>
       </c>
       <c r="E11" s="73" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F11" s="73" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G11" s="73" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H11" s="73" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I11" s="73" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11214,7 +11249,7 @@
     </row>
     <row r="13" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="70" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B13" s="70" t="s">
         <v>71</v>
@@ -11234,16 +11269,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="72" t="s">
         <v>150</v>
-      </c>
-      <c r="C14" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="E14" s="72" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11251,16 +11286,16 @@
         <v>9</v>
       </c>
       <c r="B15" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="72" t="s">
         <v>150</v>
-      </c>
-      <c r="C15" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="E15" s="72" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11268,16 +11303,16 @@
         <v>10</v>
       </c>
       <c r="B16" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="72" t="s">
         <v>150</v>
-      </c>
-      <c r="C16" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="E16" s="72" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11285,16 +11320,16 @@
         <v>11</v>
       </c>
       <c r="B17" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="72" t="s">
         <v>150</v>
-      </c>
-      <c r="C17" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="E17" s="72" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11302,16 +11337,16 @@
         <v>12</v>
       </c>
       <c r="B18" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="72" t="s">
         <v>150</v>
-      </c>
-      <c r="C18" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="E18" s="72" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11322,7 +11357,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="68" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -11330,7 +11365,7 @@
     </row>
     <row r="21" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="70" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B21" s="70" t="s">
         <v>78</v>
@@ -11348,7 +11383,7 @@
         <v>128</v>
       </c>
       <c r="C22" s="72" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D22" s="0"/>
     </row>
@@ -11360,7 +11395,7 @@
         <v>128</v>
       </c>
       <c r="C23" s="72" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D23" s="0"/>
     </row>
@@ -11372,7 +11407,7 @@
         <v>128</v>
       </c>
       <c r="C24" s="72" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D24" s="0"/>
     </row>
@@ -11384,7 +11419,7 @@
         <v>128</v>
       </c>
       <c r="C25" s="72" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D25" s="0"/>
     </row>
@@ -11396,7 +11431,7 @@
         <v>128</v>
       </c>
       <c r="C26" s="72" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D26" s="0"/>
     </row>
@@ -11416,10 +11451,10 @@
     </row>
     <row r="29" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="70" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B29" s="70" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C29" s="70" t="s">
         <v>83</v>
@@ -11439,7 +11474,7 @@
         <v>128</v>
       </c>
       <c r="D30" s="72" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11453,7 +11488,7 @@
         <v>128</v>
       </c>
       <c r="D31" s="72" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11467,7 +11502,7 @@
         <v>128</v>
       </c>
       <c r="D32" s="72" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11481,7 +11516,7 @@
         <v>128</v>
       </c>
       <c r="D33" s="72" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11495,7 +11530,7 @@
         <v>128</v>
       </c>
       <c r="D34" s="72" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11506,7 +11541,7 @@
     </row>
     <row r="36" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="68" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -11514,16 +11549,16 @@
     </row>
     <row r="37" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="70" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B37" s="70" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C37" s="70" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D37" s="70" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11531,13 +11566,13 @@
         <v>8</v>
       </c>
       <c r="B38" s="72" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C38" s="72" t="s">
         <v>128</v>
       </c>
       <c r="D38" s="72" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11545,13 +11580,13 @@
         <v>9</v>
       </c>
       <c r="B39" s="72" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C39" s="72" t="s">
         <v>128</v>
       </c>
       <c r="D39" s="72" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11559,13 +11594,13 @@
         <v>10</v>
       </c>
       <c r="B40" s="72" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C40" s="72" t="s">
         <v>128</v>
       </c>
       <c r="D40" s="72" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11573,13 +11608,13 @@
         <v>11</v>
       </c>
       <c r="B41" s="72" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C41" s="72" t="s">
         <v>128</v>
       </c>
       <c r="D41" s="72" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11587,13 +11622,13 @@
         <v>12</v>
       </c>
       <c r="B42" s="72" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C42" s="72" t="s">
         <v>128</v>
       </c>
       <c r="D42" s="72" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/PSAPAC_SAND3/Data/gskau_external_target.xlsx
+++ b/Projects/PSAPAC_SAND3/Data/gskau_external_target.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="166">
   <si>
     <t xml:space="preserve">Store Number</t>
   </si>
@@ -429,25 +429,37 @@
     <t xml:space="preserve">GSK_LAYOUT_COMPLIANCE_SEQUENCE</t>
   </si>
   <si>
-    <t xml:space="preserve">Panadol Osteo, Panadol Extra, Panadol Rapid, Panadol Optizorb, Panadol Mini, Panadol Base</t>
+    <t xml:space="preserve">TWC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nurofen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panadol Base, Nurofen, Aspro, Disprin</t>
   </si>
   <si>
     <t xml:space="preserve">Below or Same level</t>
   </si>
   <si>
-    <t xml:space="preserve">Panadol Base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
+    <t xml:space="preserve">Cartia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspro, Biotene, Cartia, Flixonase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panadol Mini, Cartia, Nurofen, Aspro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Astrix, Panadol Optizorb, Cartia, Aspro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Astrix, Panadol Optizorb, Flixonase, Cartia, Aspro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biotene, Flixonase, Cartia, Aspro</t>
   </si>
   <si>
     <t xml:space="preserve">Section</t>
@@ -837,7 +849,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1090,6 +1102,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1148,7 +1164,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFF3333"/>
       <rgbColor rgb="FF00FF66"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1220,14 +1236,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="34.8137651821862"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="9.10526315789474"/>
@@ -1430,21 +1446,21 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="6" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="6" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="6" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="42.2064777327935"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="6" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="6" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="6" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="6" width="9.10526315789474"/>
   </cols>
@@ -5557,6 +5573,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFFF3333"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I13"/>
@@ -5567,13 +5584,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="48" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="48" width="33.7408906882591"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="48" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="37.2793522267206"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="48" width="13.8178137651822"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="48" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="48" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="49" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="49" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="50" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="50" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="50" width="9.10526315789474"/>
@@ -5957,13 +5974,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.8825910931174"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.2793522267206"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
@@ -6347,14 +6364,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.0404858299595"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.4534412955466"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.0971659919028"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.8178137651822"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="49" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="49" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="49" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="49" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
@@ -6717,11 +6734,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.8097165991903"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="49" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.1417004048583"/>
@@ -7046,21 +7063,21 @@
     <tabColor rgb="FFAECF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.5991902834008"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0283400809717"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="81.9473684210526"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="83.3400809716599"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
@@ -7102,23 +7119,23 @@
       <c r="A2" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>133</v>
+      <c r="E2" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>135</v>
       </c>
       <c r="G2" s="58" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H2" s="58" t="s">
         <v>113</v>
@@ -7126,29 +7143,29 @@
       <c r="I2" s="55" t="n">
         <v>43876</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="58" t="s">
+      <c r="B3" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="58" t="s">
-        <v>133</v>
+      <c r="E3" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="63" t="s">
+        <v>138</v>
       </c>
       <c r="G3" s="58" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H3" s="58" t="s">
         <v>113</v>
@@ -7156,29 +7173,29 @@
       <c r="I3" s="55" t="n">
         <v>43876</v>
       </c>
-      <c r="J3" s="63"/>
+      <c r="J3" s="64"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="58" t="s">
+      <c r="B4" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>133</v>
+      <c r="E4" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>140</v>
       </c>
       <c r="G4" s="58" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H4" s="58" t="s">
         <v>113</v>
@@ -7186,29 +7203,29 @@
       <c r="I4" s="55" t="n">
         <v>43876</v>
       </c>
-      <c r="J4" s="63"/>
+      <c r="J4" s="64"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="58" t="s">
+      <c r="B5" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>133</v>
+      <c r="E5" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>141</v>
       </c>
       <c r="G5" s="58" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H5" s="58" t="s">
         <v>113</v>
@@ -7216,29 +7233,29 @@
       <c r="I5" s="55" t="n">
         <v>43876</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="64"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="58" t="s">
+      <c r="B6" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>133</v>
+      <c r="E6" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="63" t="s">
+        <v>142</v>
       </c>
       <c r="G6" s="58" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H6" s="58" t="s">
         <v>113</v>
@@ -7246,29 +7263,29 @@
       <c r="I6" s="55" t="n">
         <v>43876</v>
       </c>
-      <c r="J6" s="63"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="58" t="s">
+      <c r="B7" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>133</v>
+      <c r="E7" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="63" t="s">
+        <v>143</v>
       </c>
       <c r="G7" s="58" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H7" s="58" t="s">
         <v>113</v>
@@ -7276,147 +7293,67 @@
       <c r="I7" s="55" t="n">
         <v>43876</v>
       </c>
-      <c r="J7" s="63"/>
+      <c r="J7" s="64"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="G8" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="H8" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" s="55" t="n">
-        <v>43876</v>
-      </c>
-      <c r="J8" s="63"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="64"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="H9" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="I9" s="55" t="n">
-        <v>43876</v>
-      </c>
-      <c r="J9" s="63"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="64"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="G10" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="H10" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="I10" s="55" t="n">
-        <v>43876</v>
-      </c>
-      <c r="J10" s="63"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="G11" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="H11" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="I11" s="55" t="n">
-        <v>43876</v>
-      </c>
-      <c r="J11" s="63"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>139</v>
-      </c>
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="64"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="64"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7444,21 +7381,21 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="6" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="6" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="6" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="41.5627530364373"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="6" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="6" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="6" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="6" width="9.10526315789474"/>
   </cols>
@@ -9555,7 +9492,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>40</v>
@@ -10171,7 +10108,7 @@
         <v>78</v>
       </c>
       <c r="K20" s="31" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L20" s="31"/>
       <c r="M20" s="31" t="s">
@@ -10213,7 +10150,7 @@
         <v>79</v>
       </c>
       <c r="K21" s="31" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L21" s="32" t="s">
         <v>54</v>
@@ -10996,248 +10933,248 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="6" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="9" min="2" style="6" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="10" style="6" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="64" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="64" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="65" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="65" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="6" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
+      <c r="A1" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
       <c r="I1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
-      <c r="B2" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67"/>
+      <c r="B2" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0"/>
-      <c r="B3" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67"/>
+      <c r="B3" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
       <c r="I4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
+      <c r="A5" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
       <c r="I5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="70" t="s">
+      <c r="A6" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G6" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="70" t="s">
+      <c r="I6" s="71" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="71" t="n">
+      <c r="A7" s="72" t="n">
         <v>8</v>
       </c>
-      <c r="B7" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="72" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="73" t="s">
+      <c r="B7" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="73" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" s="73" t="s">
+      <c r="E7" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="I7" s="74" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="72" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="H7" s="73" t="s">
+      <c r="C8" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="I7" s="73" t="s">
+      <c r="D8" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" s="74" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="72" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="73" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="71" t="n">
-        <v>9</v>
-      </c>
-      <c r="B8" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="72" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="73" t="s">
+      <c r="D9" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="73" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="73" t="s">
+      <c r="E9" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="I9" s="74" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="72" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="H8" s="73" t="s">
+      <c r="C10" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="I8" s="73" t="s">
+      <c r="D10" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="I10" s="74" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="72" t="n">
+        <v>12</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="73" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="71" t="n">
-        <v>10</v>
-      </c>
-      <c r="B9" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="72" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="73" t="s">
+      <c r="D11" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="73" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="G9" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="H9" s="73" t="s">
-        <v>153</v>
-      </c>
-      <c r="I9" s="73" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="71" t="n">
-        <v>11</v>
-      </c>
-      <c r="B10" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="72" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="73" t="s">
-        <v>150</v>
-      </c>
-      <c r="F10" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="H10" s="73" t="s">
-        <v>153</v>
-      </c>
-      <c r="I10" s="73" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="71" t="n">
-        <v>12</v>
-      </c>
-      <c r="B11" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="72" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" s="73" t="s">
-        <v>150</v>
-      </c>
-      <c r="F11" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="G11" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="H11" s="73" t="s">
-        <v>153</v>
-      </c>
-      <c r="I11" s="73" t="s">
-        <v>153</v>
+      <c r="E11" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="H11" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="74" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11248,105 +11185,105 @@
       <c r="E12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="70" t="s">
+      <c r="A13" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="70" t="s">
+      <c r="E13" s="71" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="71" t="n">
+      <c r="A14" s="72" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="72" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="72" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="D14" s="72" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="72" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="72" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="71" t="n">
-        <v>9</v>
-      </c>
-      <c r="B15" s="72" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="72" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="72" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="72" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="73" t="s">
         <v>154</v>
-      </c>
-      <c r="D15" s="72" t="s">
-        <v>154</v>
-      </c>
-      <c r="E15" s="72" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="71" t="n">
-        <v>10</v>
-      </c>
-      <c r="B16" s="72" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" s="72" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="72" t="s">
-        <v>154</v>
-      </c>
-      <c r="E16" s="72" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="71" t="n">
-        <v>11</v>
-      </c>
-      <c r="B17" s="72" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="72" t="s">
-        <v>154</v>
-      </c>
-      <c r="D17" s="72" t="s">
-        <v>154</v>
-      </c>
-      <c r="E17" s="72" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="71" t="n">
-        <v>12</v>
-      </c>
-      <c r="B18" s="72" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="72" t="s">
-        <v>154</v>
-      </c>
-      <c r="D18" s="72" t="s">
-        <v>154</v>
-      </c>
-      <c r="E18" s="72" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11356,82 +11293,82 @@
       <c r="D19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="68" t="s">
-        <v>155</v>
+      <c r="A20" s="69" t="s">
+        <v>159</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
       <c r="D20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" s="70" t="s">
+      <c r="A21" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="71" t="s">
         <v>79</v>
       </c>
       <c r="D21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="71" t="n">
+      <c r="A22" s="72" t="n">
         <v>8</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="72" t="s">
-        <v>156</v>
+      <c r="C22" s="73" t="s">
+        <v>160</v>
       </c>
       <c r="D22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="71" t="n">
+      <c r="A23" s="72" t="n">
         <v>9</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="72" t="s">
-        <v>156</v>
+      <c r="C23" s="73" t="s">
+        <v>160</v>
       </c>
       <c r="D23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="71" t="n">
+      <c r="A24" s="72" t="n">
         <v>10</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="72" t="s">
-        <v>156</v>
+      <c r="C24" s="73" t="s">
+        <v>160</v>
       </c>
       <c r="D24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="71" t="n">
+      <c r="A25" s="72" t="n">
         <v>11</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="72" t="s">
-        <v>156</v>
+      <c r="C25" s="73" t="s">
+        <v>160</v>
       </c>
       <c r="D25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="71" t="n">
+      <c r="A26" s="72" t="n">
         <v>12</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="72" t="s">
-        <v>156</v>
+      <c r="C26" s="73" t="s">
+        <v>160</v>
       </c>
       <c r="D26" s="0"/>
     </row>
@@ -11442,7 +11379,7 @@
       <c r="D27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="69" t="s">
         <v>80</v>
       </c>
       <c r="B28" s="0"/>
@@ -11450,87 +11387,87 @@
       <c r="D28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="B29" s="70" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="70" t="s">
+      <c r="A29" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="70" t="s">
+      <c r="D29" s="71" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="71" t="n">
+      <c r="A30" s="72" t="n">
         <v>8</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="D30" s="72" t="s">
-        <v>149</v>
+      <c r="D30" s="73" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="71" t="n">
+      <c r="A31" s="72" t="n">
         <v>9</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="72" t="s">
+      <c r="C31" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="D31" s="72" t="s">
-        <v>149</v>
+      <c r="D31" s="73" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="71" t="n">
+      <c r="A32" s="72" t="n">
         <v>10</v>
       </c>
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="72" t="s">
+      <c r="C32" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="D32" s="72" t="s">
-        <v>149</v>
+      <c r="D32" s="73" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="71" t="n">
+      <c r="A33" s="72" t="n">
         <v>11</v>
       </c>
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="72" t="s">
+      <c r="C33" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="72" t="s">
-        <v>149</v>
+      <c r="D33" s="73" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="71" t="n">
+      <c r="A34" s="72" t="n">
         <v>12</v>
       </c>
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="72" t="s">
+      <c r="C34" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="72" t="s">
-        <v>149</v>
+      <c r="D34" s="73" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11540,95 +11477,95 @@
       <c r="D35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="68" t="s">
-        <v>158</v>
+      <c r="A36" s="69" t="s">
+        <v>162</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
       <c r="D36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="B37" s="70" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="D37" s="70" t="s">
-        <v>161</v>
+      <c r="A37" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" s="71" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="71" t="n">
+      <c r="A38" s="72" t="n">
         <v>8</v>
       </c>
-      <c r="B38" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="C38" s="72" t="s">
+      <c r="B38" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="D38" s="72" t="s">
-        <v>150</v>
+      <c r="D38" s="73" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="71" t="n">
+      <c r="A39" s="72" t="n">
         <v>9</v>
       </c>
-      <c r="B39" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="C39" s="72" t="s">
+      <c r="B39" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="D39" s="72" t="s">
-        <v>150</v>
+      <c r="D39" s="73" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="71" t="n">
+      <c r="A40" s="72" t="n">
         <v>10</v>
       </c>
-      <c r="B40" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="C40" s="72" t="s">
+      <c r="B40" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="72" t="s">
-        <v>150</v>
+      <c r="D40" s="73" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="71" t="n">
+      <c r="A41" s="72" t="n">
         <v>11</v>
       </c>
-      <c r="B41" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" s="72" t="s">
+      <c r="B41" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="72" t="s">
-        <v>150</v>
+      <c r="D41" s="73" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="71" t="n">
+      <c r="A42" s="72" t="n">
         <v>12</v>
       </c>
-      <c r="B42" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" s="72" t="s">
+      <c r="B42" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="D42" s="72" t="s">
-        <v>150</v>
+      <c r="D42" s="73" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/PSAPAC_SAND3/Data/gskau_external_target.xlsx
+++ b/Projects/PSAPAC_SAND3/Data/gskau_external_target.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Secondary_Display" sheetId="1" state="visible" r:id="rId2"/>
@@ -605,7 +605,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
     <fill>
@@ -653,7 +653,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFBE5D6"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -849,7 +849,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1102,10 +1102,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1180,7 +1176,7 @@
       <rgbColor rgb="FF7F7F7F"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFF2CC"/>
+      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFDAE3F3"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -1188,7 +1184,7 @@
       <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFBE5D6"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -1197,7 +1193,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFF2F2F2"/>
       <rgbColor rgb="FFE2F0D9"/>
-      <rgbColor rgb="FFFBE5D6"/>
+      <rgbColor rgb="FFFFF2CC"/>
       <rgbColor rgb="FFBFBFBF"/>
       <rgbColor rgb="FFFF9999"/>
       <rgbColor rgb="FFB5B5B6"/>
@@ -1226,24 +1222,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFFFFFCC"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="35.0283400809717"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="9.10526315789474"/>
@@ -1446,21 +1443,21 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="6" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="6" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="26.1376518218623"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="6" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="42.5263157894737"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="6" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="6" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="6" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="6" width="9.10526315789474"/>
   </cols>
@@ -5578,19 +5575,19 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="48" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="48" width="34.0647773279352"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="48" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="37.5991902834008"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="48" width="13.8178137651822"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="48" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="48" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="49" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="49" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="50" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="50" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="50" width="9.10526315789474"/>
@@ -5974,13 +5971,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.2064777327935"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5991902834008"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
@@ -6364,14 +6361,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.0971659919028"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.4210526315789"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.8178137651822"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.9230769230769"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="49" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="49" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="49" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="49" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
@@ -6734,11 +6731,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.2064777327935"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.8097165991903"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1336032388664"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="49" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.1417004048583"/>
@@ -7065,19 +7062,19 @@
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.2429149797571"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="83.3400809716599"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="84.0890688259109"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
@@ -7119,19 +7116,19 @@
       <c r="A2" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="58" t="s">
         <v>135</v>
       </c>
       <c r="G2" s="58" t="s">
@@ -7143,25 +7140,25 @@
       <c r="I2" s="55" t="n">
         <v>43876</v>
       </c>
-      <c r="J2" s="64"/>
+      <c r="J2" s="63"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="58" t="s">
         <v>138</v>
       </c>
       <c r="G3" s="58" t="s">
@@ -7173,25 +7170,25 @@
       <c r="I3" s="55" t="n">
         <v>43876</v>
       </c>
-      <c r="J3" s="64"/>
+      <c r="J3" s="63"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="58" t="s">
         <v>140</v>
       </c>
       <c r="G4" s="58" t="s">
@@ -7203,25 +7200,25 @@
       <c r="I4" s="55" t="n">
         <v>43876</v>
       </c>
-      <c r="J4" s="64"/>
+      <c r="J4" s="63"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="58" t="s">
         <v>141</v>
       </c>
       <c r="G5" s="58" t="s">
@@ -7233,25 +7230,25 @@
       <c r="I5" s="55" t="n">
         <v>43876</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="58" t="s">
         <v>142</v>
       </c>
       <c r="G6" s="58" t="s">
@@ -7263,25 +7260,25 @@
       <c r="I6" s="55" t="n">
         <v>43876</v>
       </c>
-      <c r="J6" s="64"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="58" t="s">
         <v>143</v>
       </c>
       <c r="G7" s="58" t="s">
@@ -7293,7 +7290,7 @@
       <c r="I7" s="55" t="n">
         <v>43876</v>
       </c>
-      <c r="J7" s="64"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="58"/>
@@ -7305,7 +7302,7 @@
       <c r="G8" s="58"/>
       <c r="H8" s="58"/>
       <c r="I8" s="55"/>
-      <c r="J8" s="64"/>
+      <c r="J8" s="63"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="58"/>
@@ -7317,7 +7314,7 @@
       <c r="G9" s="58"/>
       <c r="H9" s="58"/>
       <c r="I9" s="55"/>
-      <c r="J9" s="64"/>
+      <c r="J9" s="63"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="58"/>
@@ -7329,7 +7326,7 @@
       <c r="G10" s="58"/>
       <c r="H10" s="58"/>
       <c r="I10" s="55"/>
-      <c r="J10" s="64"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="58"/>
@@ -7341,7 +7338,7 @@
       <c r="G11" s="58"/>
       <c r="H11" s="58"/>
       <c r="I11" s="55"/>
-      <c r="J11" s="64"/>
+      <c r="J11" s="63"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="58"/>
@@ -7353,7 +7350,7 @@
       <c r="G12" s="58"/>
       <c r="H12" s="58"/>
       <c r="I12" s="55"/>
-      <c r="J12" s="64"/>
+      <c r="J12" s="63"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7381,21 +7378,21 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="6" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="6" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="26.1376518218623"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="6" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="41.8825910931174"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="6" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="6" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="6" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="6" width="9.10526315789474"/>
   </cols>
@@ -10933,247 +10930,247 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="6" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="9" min="2" style="6" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="10" style="6" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="65" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="65" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="64" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="64" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="6" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
       <c r="I1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0"/>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="68"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
       <c r="I4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
       <c r="I5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="F6" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="71" t="s">
+      <c r="I6" s="70" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="72" t="n">
+      <c r="A7" s="71" t="n">
         <v>8</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="E7" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="74" t="s">
+      <c r="G7" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="I7" s="74" t="s">
+      <c r="I7" s="73" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="72" t="n">
+      <c r="A8" s="71" t="n">
         <v>9</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="74" t="s">
+      <c r="F8" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="G8" s="74" t="s">
+      <c r="G8" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="H8" s="74" t="s">
+      <c r="H8" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="I8" s="74" t="s">
+      <c r="I8" s="73" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="72" t="n">
+      <c r="A9" s="71" t="n">
         <v>10</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="F9" s="74" t="s">
+      <c r="F9" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="G9" s="74" t="s">
+      <c r="G9" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="H9" s="74" t="s">
+      <c r="H9" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="I9" s="74" t="s">
+      <c r="I9" s="73" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="72" t="n">
+      <c r="A10" s="71" t="n">
         <v>11</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="74" t="s">
+      <c r="E10" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="F10" s="74" t="s">
+      <c r="F10" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="G10" s="74" t="s">
+      <c r="G10" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="H10" s="74" t="s">
+      <c r="H10" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="I10" s="74" t="s">
+      <c r="I10" s="73" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="72" t="n">
+      <c r="A11" s="71" t="n">
         <v>12</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="74" t="s">
+      <c r="E11" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="74" t="s">
+      <c r="F11" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="G11" s="74" t="s">
+      <c r="G11" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="H11" s="74" t="s">
+      <c r="H11" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="73" t="s">
         <v>157</v>
       </c>
     </row>
@@ -11185,104 +11182,104 @@
       <c r="E12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="70" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="72" t="n">
+      <c r="A14" s="71" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="E14" s="73" t="s">
+      <c r="E14" s="72" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="72" t="n">
+      <c r="A15" s="71" t="n">
         <v>9</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="E15" s="72" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="72" t="n">
+      <c r="A16" s="71" t="n">
         <v>10</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="E16" s="73" t="s">
+      <c r="E16" s="72" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="72" t="n">
+      <c r="A17" s="71" t="n">
         <v>11</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="E17" s="73" t="s">
+      <c r="E17" s="72" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="72" t="n">
+      <c r="A18" s="71" t="n">
         <v>12</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="E18" s="73" t="s">
+      <c r="E18" s="72" t="s">
         <v>154</v>
       </c>
     </row>
@@ -11293,7 +11290,7 @@
       <c r="D19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="68" t="s">
         <v>159</v>
       </c>
       <c r="B20" s="0"/>
@@ -11301,73 +11298,73 @@
       <c r="D20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="70" t="s">
         <v>79</v>
       </c>
       <c r="D21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="72" t="n">
+      <c r="A22" s="71" t="n">
         <v>8</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="72" t="s">
         <v>160</v>
       </c>
       <c r="D22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="72" t="n">
+      <c r="A23" s="71" t="n">
         <v>9</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="72" t="s">
         <v>160</v>
       </c>
       <c r="D23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="72" t="n">
+      <c r="A24" s="71" t="n">
         <v>10</v>
       </c>
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="72" t="s">
         <v>160</v>
       </c>
       <c r="D24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="72" t="n">
+      <c r="A25" s="71" t="n">
         <v>11</v>
       </c>
-      <c r="B25" s="73" t="s">
+      <c r="B25" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="72" t="s">
         <v>160</v>
       </c>
       <c r="D25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="72" t="n">
+      <c r="A26" s="71" t="n">
         <v>12</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="72" t="s">
         <v>160</v>
       </c>
       <c r="D26" s="0"/>
@@ -11379,7 +11376,7 @@
       <c r="D27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="68" t="s">
         <v>80</v>
       </c>
       <c r="B28" s="0"/>
@@ -11387,86 +11384,86 @@
       <c r="D28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="71" t="s">
+      <c r="A29" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="70" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="72" t="n">
+      <c r="A30" s="71" t="n">
         <v>8</v>
       </c>
-      <c r="B30" s="73" t="s">
+      <c r="B30" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="73" t="s">
+      <c r="C30" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="D30" s="73" t="s">
+      <c r="D30" s="72" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="72" t="n">
+      <c r="A31" s="71" t="n">
         <v>9</v>
       </c>
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="D31" s="73" t="s">
+      <c r="D31" s="72" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="72" t="n">
+      <c r="A32" s="71" t="n">
         <v>10</v>
       </c>
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="73" t="s">
+      <c r="C32" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="D32" s="73" t="s">
+      <c r="D32" s="72" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="72" t="n">
+      <c r="A33" s="71" t="n">
         <v>11</v>
       </c>
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="73" t="s">
+      <c r="C33" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="73" t="s">
+      <c r="D33" s="72" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="72" t="n">
+      <c r="A34" s="71" t="n">
         <v>12</v>
       </c>
-      <c r="B34" s="73" t="s">
+      <c r="B34" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="73" t="s">
+      <c r="C34" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="73" t="s">
+      <c r="D34" s="72" t="s">
         <v>153</v>
       </c>
     </row>
@@ -11477,7 +11474,7 @@
       <c r="D35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="68" t="s">
         <v>162</v>
       </c>
       <c r="B36" s="0"/>
@@ -11485,86 +11482,86 @@
       <c r="D36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="71" t="s">
+      <c r="A37" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C37" s="71" t="s">
+      <c r="C37" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="D37" s="71" t="s">
+      <c r="D37" s="70" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="72" t="n">
+      <c r="A38" s="71" t="n">
         <v>8</v>
       </c>
-      <c r="B38" s="73" t="s">
+      <c r="B38" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="C38" s="73" t="s">
+      <c r="C38" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="D38" s="73" t="s">
+      <c r="D38" s="72" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="72" t="n">
+      <c r="A39" s="71" t="n">
         <v>9</v>
       </c>
-      <c r="B39" s="73" t="s">
+      <c r="B39" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="C39" s="73" t="s">
+      <c r="C39" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="D39" s="73" t="s">
+      <c r="D39" s="72" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="72" t="n">
+      <c r="A40" s="71" t="n">
         <v>10</v>
       </c>
-      <c r="B40" s="73" t="s">
+      <c r="B40" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="C40" s="73" t="s">
+      <c r="C40" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="73" t="s">
+      <c r="D40" s="72" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="72" t="n">
+      <c r="A41" s="71" t="n">
         <v>11</v>
       </c>
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="C41" s="73" t="s">
+      <c r="C41" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="73" t="s">
+      <c r="D41" s="72" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="72" t="n">
+      <c r="A42" s="71" t="n">
         <v>12</v>
       </c>
-      <c r="B42" s="73" t="s">
+      <c r="B42" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="C42" s="73" t="s">
+      <c r="C42" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="D42" s="73" t="s">
+      <c r="D42" s="72" t="s">
         <v>154</v>
       </c>
     </row>

--- a/Projects/PSAPAC_SAND3/Data/gskau_external_target.xlsx
+++ b/Projects/PSAPAC_SAND3/Data/gskau_external_target.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Secondary_Display" sheetId="1" state="visible" r:id="rId2"/>
@@ -605,7 +605,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -623,7 +623,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF950E"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
@@ -653,7 +653,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFBE5D6"/>
       </patternFill>
     </fill>
     <fill>
@@ -1160,8 +1160,8 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF3333"/>
-      <rgbColor rgb="FF00FF66"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -1176,7 +1176,7 @@
       <rgbColor rgb="FF7F7F7F"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFF2CC"/>
       <rgbColor rgb="FFDAE3F3"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -1184,7 +1184,7 @@
       <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFBE5D6"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -1193,16 +1193,16 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFF2F2F2"/>
       <rgbColor rgb="FFE2F0D9"/>
-      <rgbColor rgb="FFFFF2CC"/>
+      <rgbColor rgb="FFFBE5D6"/>
       <rgbColor rgb="FFBFBFBF"/>
       <rgbColor rgb="FFFF9999"/>
       <rgbColor rgb="FFB5B5B6"/>
       <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FFAECF00"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFFF950E"/>
+      <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FFA6A6A6"/>
@@ -1222,25 +1222,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFFFFFCC"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="35.2429149797571"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="9.10526315789474"/>
@@ -1444,19 +1443,19 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="6" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="6" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="6" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="6" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="42.9554655870445"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="6" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="6" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="6" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="6" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="6" width="9.10526315789474"/>
@@ -5570,24 +5569,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFFF3333"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="48" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="48" width="34.3846153846154"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="48" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="37.8137651821862"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="48" width="13.8178137651822"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="48" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="48" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="49" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="49" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="50" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="50" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="50" width="9.10526315789474"/>
@@ -5960,7 +5958,6 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFFF950E"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I13"/>
@@ -5971,13 +5968,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.5263157894737"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.8137651821862"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
@@ -6350,7 +6347,6 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="FF00FF66"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J11"/>
@@ -6361,14 +6357,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.7408906882591"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.0323886639676"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="49" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="49" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="49" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="49" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
@@ -6720,7 +6716,6 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="FF9999FF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:N7"/>
@@ -6731,11 +6726,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.8502024291498"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.4534412955466"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="49" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.1417004048583"/>
@@ -7057,7 +7052,6 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFAECF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J12"/>
@@ -7068,13 +7062,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.7044534412955"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.4574898785425"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="84.0890688259109"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="84.8380566801619"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
@@ -7379,19 +7373,19 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="6" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="6" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="6" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="6" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="42.2064777327935"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="6" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="6" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="6" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="6" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="6" width="9.10526315789474"/>
@@ -10930,9 +10924,9 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="6" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="9" min="2" style="6" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="10" style="6" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="64" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="64" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="64" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="6" width="9.10526315789474"/>
   </cols>

--- a/Projects/PSAPAC_SAND3/Data/gskau_external_target.xlsx
+++ b/Projects/PSAPAC_SAND3/Data/gskau_external_target.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Secondary_Display" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="171">
   <si>
     <t xml:space="preserve">Store Number</t>
   </si>
@@ -351,12 +351,15 @@
     <t xml:space="preserve">KPI Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Store Banner</t>
+    <t xml:space="preserve">Store Banner (static.stores =&gt; additional_attribute_20)</t>
   </si>
   <si>
     <t xml:space="preserve">Sub Category</t>
   </si>
   <si>
+    <t xml:space="preserve">Super Brand (label in product table)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stacking</t>
   </si>
   <si>
@@ -366,6 +369,9 @@
     <t xml:space="preserve">GSK_LAYOUT_COMPLIANCE_BLOCK </t>
   </si>
   <si>
+    <t xml:space="preserve">TWC</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pain Main Shelf, Pain Main Shelf - Grcy</t>
   </si>
   <si>
@@ -378,7 +384,7 @@
     <t xml:space="preserve">Toothpaste</t>
   </si>
   <si>
-    <t xml:space="preserve">Non-TerryWhite</t>
+    <t xml:space="preserve">Non-TWC</t>
   </si>
   <si>
     <t xml:space="preserve">SOS Threshold %</t>
@@ -390,7 +396,19 @@
     <t xml:space="preserve">GSK_LAYOUT_COMPLIANCE_BRAND_FSOS</t>
   </si>
   <si>
-    <t xml:space="preserve">Wellness Main Shelf, Wellness Main Shelf - Grcy</t>
+    <t xml:space="preserve">Pain Main Shelf, Wellness Main Shelf, Pain Main Shelf - Grcy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicorette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panadol Base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pain Main Shelf, Wellness Main Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panadol Night</t>
   </si>
   <si>
     <t xml:space="preserve">Target %</t>
@@ -427,9 +445,6 @@
   </si>
   <si>
     <t xml:space="preserve">GSK_LAYOUT_COMPLIANCE_SEQUENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWC</t>
   </si>
   <si>
     <t xml:space="preserve">Nurofen</t>
@@ -849,7 +864,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1066,6 +1081,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1082,10 +1101,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1098,12 +1113,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1226,20 +1245,20 @@
   </sheetPr>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="2" sqref="B2 B26 L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="37.8137651821862"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="9.10526315789474"/>
@@ -1435,7 +1454,7 @@
   <dimension ref="1:56"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
+      <selection pane="topLeft" activeCell="C40" activeCellId="2" sqref="B2 B26 C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1443,19 +1462,19 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="6" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="6" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="6" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="28.2793522267206"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="6" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="46.2753036437247"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="6" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="6" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="6" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="6" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="6" width="9.10526315789474"/>
@@ -5573,19 +5592,19 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="1" sqref="B2 B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="48" width="34.3846153846154"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="48" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="48" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="48" width="55.4858299595142"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="40.5991902834008"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="48" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="48" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="48" width="36.5263157894737"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="48" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="49" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="49" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="50" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="50" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="50" width="9.10526315789474"/>
@@ -5595,7 +5614,7 @@
       <c r="A1" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>107</v>
       </c>
       <c r="C1" s="51" t="s">
@@ -5605,13 +5624,13 @@
         <v>108</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G1" s="51" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H1" s="51" t="s">
         <v>11</v>
@@ -5622,13 +5641,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>49</v>
+        <v>112</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>113</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>51</v>
@@ -5637,25 +5656,25 @@
         <v>52</v>
       </c>
       <c r="F2" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="54" t="n">
+        <v>115</v>
+      </c>
+      <c r="G2" s="55" t="n">
         <v>80</v>
       </c>
-      <c r="H2" s="55" t="n">
+      <c r="H2" s="56" t="n">
         <v>43876</v>
       </c>
-      <c r="I2" s="56"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>49</v>
+        <v>112</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>113</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D3" s="53" t="s">
         <v>51</v>
@@ -5664,25 +5683,25 @@
         <v>59</v>
       </c>
       <c r="F3" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="54" t="n">
+        <v>115</v>
+      </c>
+      <c r="G3" s="55" t="n">
         <v>80</v>
       </c>
-      <c r="H3" s="55" t="n">
+      <c r="H3" s="56" t="n">
         <v>43876</v>
       </c>
-      <c r="I3" s="56"/>
+      <c r="I3" s="57"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>49</v>
+        <v>112</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>113</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D4" s="53" t="s">
         <v>93</v>
@@ -5691,25 +5710,25 @@
         <v>52</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="54" t="n">
+        <v>115</v>
+      </c>
+      <c r="G4" s="55" t="n">
         <v>80</v>
       </c>
-      <c r="H4" s="55" t="n">
+      <c r="H4" s="56" t="n">
         <v>43876</v>
       </c>
-      <c r="I4" s="56"/>
+      <c r="I4" s="57"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>49</v>
+        <v>112</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>113</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>77</v>
@@ -5718,52 +5737,52 @@
         <v>59</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="54" t="n">
+        <v>115</v>
+      </c>
+      <c r="G5" s="55" t="n">
         <v>80</v>
       </c>
-      <c r="H5" s="55" t="n">
+      <c r="H5" s="56" t="n">
         <v>43876</v>
       </c>
-      <c r="I5" s="56"/>
+      <c r="I5" s="57"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>49</v>
+        <v>112</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>113</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E6" s="53" t="s">
         <v>81</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="54" t="n">
+        <v>115</v>
+      </c>
+      <c r="G6" s="55" t="n">
         <v>80</v>
       </c>
-      <c r="H6" s="55" t="n">
+      <c r="H6" s="56" t="n">
         <v>43876</v>
       </c>
-      <c r="I6" s="57"/>
+      <c r="I6" s="58"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>49</v>
+        <v>112</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>113</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D7" s="53" t="s">
         <v>86</v>
@@ -5772,25 +5791,25 @@
         <v>52</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="54" t="n">
+        <v>115</v>
+      </c>
+      <c r="G7" s="55" t="n">
         <v>80</v>
       </c>
-      <c r="H7" s="55" t="n">
+      <c r="H7" s="56" t="n">
         <v>43876</v>
       </c>
-      <c r="I7" s="57"/>
+      <c r="I7" s="58"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>118</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D8" s="53" t="s">
         <v>51</v>
@@ -5799,25 +5818,25 @@
         <v>52</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="54" t="n">
+        <v>115</v>
+      </c>
+      <c r="G8" s="55" t="n">
         <v>80</v>
       </c>
-      <c r="H8" s="55" t="n">
+      <c r="H8" s="56" t="n">
         <v>43876</v>
       </c>
-      <c r="I8" s="57"/>
+      <c r="I8" s="58"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>118</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D9" s="53" t="s">
         <v>51</v>
@@ -5826,25 +5845,25 @@
         <v>59</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" s="54" t="n">
+        <v>115</v>
+      </c>
+      <c r="G9" s="55" t="n">
         <v>80</v>
       </c>
-      <c r="H9" s="55" t="n">
+      <c r="H9" s="56" t="n">
         <v>43876</v>
       </c>
-      <c r="I9" s="57"/>
+      <c r="I9" s="58"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>118</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D10" s="53" t="s">
         <v>93</v>
@@ -5853,25 +5872,25 @@
         <v>52</v>
       </c>
       <c r="F10" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="G10" s="54" t="n">
+        <v>115</v>
+      </c>
+      <c r="G10" s="55" t="n">
         <v>80</v>
       </c>
-      <c r="H10" s="55" t="n">
+      <c r="H10" s="56" t="n">
         <v>43876</v>
       </c>
-      <c r="I10" s="57"/>
+      <c r="I10" s="58"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>118</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D11" s="53" t="s">
         <v>77</v>
@@ -5880,52 +5899,52 @@
         <v>59</v>
       </c>
       <c r="F11" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" s="54" t="n">
+        <v>115</v>
+      </c>
+      <c r="G11" s="55" t="n">
         <v>80</v>
       </c>
-      <c r="H11" s="55" t="n">
+      <c r="H11" s="56" t="n">
         <v>43876</v>
       </c>
-      <c r="I11" s="57"/>
+      <c r="I11" s="58"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="53" t="s">
-        <v>114</v>
-      </c>
       <c r="D12" s="53" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E12" s="53" t="s">
         <v>81</v>
       </c>
       <c r="F12" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="G12" s="54" t="n">
+        <v>115</v>
+      </c>
+      <c r="G12" s="55" t="n">
         <v>80</v>
       </c>
-      <c r="H12" s="55" t="n">
+      <c r="H12" s="56" t="n">
         <v>43876</v>
       </c>
-      <c r="I12" s="57"/>
+      <c r="I12" s="58"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="53" t="s">
         <v>116</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>114</v>
       </c>
       <c r="D13" s="53" t="s">
         <v>86</v>
@@ -5934,15 +5953,15 @@
         <v>52</v>
       </c>
       <c r="F13" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13" s="54" t="n">
+        <v>115</v>
+      </c>
+      <c r="G13" s="55" t="n">
         <v>80</v>
       </c>
-      <c r="H13" s="55" t="n">
+      <c r="H13" s="56" t="n">
         <v>43876</v>
       </c>
-      <c r="I13" s="57"/>
+      <c r="I13" s="58"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5963,18 +5982,18 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="2" sqref="B2 B26 B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.5263157894737"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.4858299595142"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.5991902834008"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.5263157894737"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
@@ -5994,13 +6013,13 @@
         <v>108</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>11</v>
@@ -6010,328 +6029,328 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="58" t="s">
+      <c r="A2" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="54" t="s">
         <v>52</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G2" s="60" t="n">
         <v>45</v>
       </c>
-      <c r="H2" s="55" t="n">
+      <c r="H2" s="56" t="n">
         <v>43876</v>
       </c>
       <c r="I2" s="61"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="58" t="s">
+      <c r="A3" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="54" t="s">
         <v>59</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G3" s="60" t="n">
         <v>45</v>
       </c>
-      <c r="H3" s="55" t="n">
+      <c r="H3" s="56" t="n">
         <v>43876</v>
       </c>
       <c r="I3" s="61"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="58" t="s">
+      <c r="A4" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="54" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G4" s="60" t="n">
         <v>45</v>
       </c>
-      <c r="H4" s="55" t="n">
+      <c r="H4" s="56" t="n">
         <v>43876</v>
       </c>
       <c r="I4" s="61"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="58" t="s">
+      <c r="A5" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="54" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G5" s="60" t="n">
         <v>45</v>
       </c>
-      <c r="H5" s="55" t="n">
+      <c r="H5" s="56" t="n">
         <v>43876</v>
       </c>
       <c r="I5" s="61"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="58" t="s">
+      <c r="A6" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="59" t="s">
         <v>115</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="59" t="s">
-        <v>113</v>
       </c>
       <c r="G6" s="60" t="n">
         <v>45</v>
       </c>
-      <c r="H6" s="55" t="n">
+      <c r="H6" s="56" t="n">
         <v>43876</v>
       </c>
-      <c r="I6" s="54"/>
+      <c r="I6" s="55"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="58" t="s">
+      <c r="A7" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="54" t="s">
         <v>52</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G7" s="60" t="n">
         <v>45</v>
       </c>
-      <c r="H7" s="55" t="n">
+      <c r="H7" s="56" t="n">
         <v>43876</v>
       </c>
-      <c r="I7" s="54"/>
+      <c r="I7" s="55"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="58" t="s">
+      <c r="A8" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="54" t="s">
         <v>52</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G8" s="60" t="n">
         <v>45</v>
       </c>
-      <c r="H8" s="55" t="n">
+      <c r="H8" s="56" t="n">
         <v>43876</v>
       </c>
-      <c r="I8" s="54"/>
+      <c r="I8" s="55"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="58" t="s">
+      <c r="C9" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="54" t="s">
         <v>59</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G9" s="60" t="n">
         <v>45</v>
       </c>
-      <c r="H9" s="55" t="n">
+      <c r="H9" s="56" t="n">
         <v>43876</v>
       </c>
-      <c r="I9" s="54"/>
+      <c r="I9" s="55"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="58" t="s">
+      <c r="C10" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="54" t="s">
         <v>52</v>
       </c>
       <c r="F10" s="59" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G10" s="60" t="n">
         <v>45</v>
       </c>
-      <c r="H10" s="55" t="n">
+      <c r="H10" s="56" t="n">
         <v>43876</v>
       </c>
-      <c r="I10" s="54"/>
+      <c r="I10" s="55"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="58" t="s">
+      <c r="C11" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="54" t="s">
         <v>59</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G11" s="60" t="n">
         <v>45</v>
       </c>
-      <c r="H11" s="55" t="n">
+      <c r="H11" s="56" t="n">
         <v>43876</v>
       </c>
-      <c r="I11" s="54"/>
+      <c r="I11" s="55"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="C12" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="59" t="s">
         <v>115</v>
-      </c>
-      <c r="E12" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="59" t="s">
-        <v>113</v>
       </c>
       <c r="G12" s="60" t="n">
         <v>45</v>
       </c>
-      <c r="H12" s="55" t="n">
+      <c r="H12" s="56" t="n">
         <v>43876</v>
       </c>
-      <c r="I12" s="54"/>
+      <c r="I12" s="55"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="C13" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="54" t="s">
         <v>52</v>
       </c>
       <c r="F13" s="59" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G13" s="60" t="n">
         <v>45</v>
       </c>
-      <c r="H13" s="55" t="n">
+      <c r="H13" s="56" t="n">
         <v>43876</v>
       </c>
-      <c r="I13" s="54"/>
+      <c r="I13" s="55"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6349,22 +6368,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="2" sqref="B2 B26 B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.7408906882591"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.3076923076923"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="49" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="49" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="49" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="49" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
@@ -6384,16 +6403,16 @@
         <v>108</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I1" s="51" t="s">
         <v>11</v>
@@ -6403,305 +6422,219 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="58" t="s">
+      <c r="A2" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="60" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2" s="56" t="n">
+        <v>43845</v>
+      </c>
+      <c r="J2" s="62"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="60" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" s="63" t="n">
+        <v>43936</v>
+      </c>
+      <c r="J3" s="62"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E4" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F4" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G4" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="64" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" s="56" t="n">
+        <v>43845</v>
+      </c>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="64" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" s="56" t="n">
+        <v>43845</v>
+      </c>
+      <c r="J5" s="61"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="64" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" s="56" t="n">
+        <v>43845</v>
+      </c>
+      <c r="J6" s="61"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="62" t="n">
+      <c r="C7" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="64" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" s="56" t="n">
+        <v>43845</v>
+      </c>
+      <c r="J7" s="61"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="64" t="n">
         <v>15</v>
       </c>
-      <c r="I2" s="55" t="n">
-        <v>43876</v>
-      </c>
-      <c r="J2" s="61"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="H3" s="62" t="n">
-        <v>15</v>
-      </c>
-      <c r="I3" s="55" t="n">
-        <v>43876</v>
-      </c>
-      <c r="J3" s="61"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="62" t="n">
-        <v>15</v>
-      </c>
-      <c r="I4" s="55" t="n">
-        <v>43876</v>
-      </c>
-      <c r="J4" s="61"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="H5" s="62" t="n">
-        <v>15</v>
-      </c>
-      <c r="I5" s="55" t="n">
-        <v>43876</v>
-      </c>
-      <c r="J5" s="61"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="62" t="n">
-        <v>15</v>
-      </c>
-      <c r="I6" s="55" t="n">
-        <v>43876</v>
-      </c>
-      <c r="J6" s="54"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="H7" s="62" t="n">
-        <v>15</v>
-      </c>
-      <c r="I7" s="55" t="n">
-        <v>43876</v>
-      </c>
-      <c r="J7" s="54"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="62" t="n">
-        <v>15</v>
-      </c>
-      <c r="I8" s="55" t="n">
-        <v>43876</v>
-      </c>
-      <c r="J8" s="54"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="H9" s="62" t="n">
-        <v>15</v>
-      </c>
-      <c r="I9" s="55" t="n">
-        <v>43876</v>
-      </c>
-      <c r="J9" s="54"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="H10" s="62" t="n">
-        <v>15</v>
-      </c>
-      <c r="I10" s="55" t="n">
-        <v>43876</v>
-      </c>
-      <c r="J10" s="54"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="H11" s="62" t="n">
-        <v>15</v>
-      </c>
-      <c r="I11" s="55" t="n">
-        <v>43876</v>
-      </c>
-      <c r="J11" s="54"/>
-    </row>
+      <c r="I8" s="56" t="n">
+        <v>43845</v>
+      </c>
+      <c r="J8" s="61"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -6718,19 +6651,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="2" sqref="B2 B26 B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.4534412955466"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.4858299595142"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.0971659919028"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="49" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.1417004048583"/>
@@ -6759,25 +6692,25 @@
         <v>48</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>11</v>
@@ -6787,256 +6720,262 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="58" t="s">
+      <c r="A2" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="54" t="s">
         <v>55</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G2" s="60" t="n">
         <v>80</v>
       </c>
-      <c r="H2" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="K2" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="L2" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="M2" s="55" t="n">
+      <c r="H2" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" s="56" t="n">
         <v>43876</v>
       </c>
       <c r="N2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="58" t="s">
+      <c r="A3" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="58" t="s">
-        <v>129</v>
+      <c r="E3" s="54" t="s">
+        <v>135</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G3" s="60" t="n">
         <v>80</v>
       </c>
-      <c r="H3" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="I3" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="J3" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="K3" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="L3" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="M3" s="55" t="n">
+      <c r="H3" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="L3" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="M3" s="56" t="n">
         <v>43876</v>
       </c>
-      <c r="N3" s="58"/>
+      <c r="N3" s="54"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="58" t="s">
+      <c r="A4" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="54" t="s">
         <v>63</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G4" s="60" t="n">
         <v>80</v>
       </c>
-      <c r="H4" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="I4" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="K4" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="L4" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="M4" s="55" t="n">
+      <c r="H4" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="L4" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="M4" s="56" t="n">
         <v>43876</v>
       </c>
-      <c r="N4" s="58"/>
+      <c r="N4" s="54"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="58" t="s">
+      <c r="A5" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="54" t="s">
         <v>65</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G5" s="60" t="n">
         <v>80</v>
       </c>
-      <c r="H5" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="I5" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="J5" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="K5" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="L5" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="M5" s="55" t="n">
+      <c r="H5" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="M5" s="56" t="n">
         <v>43876</v>
       </c>
-      <c r="N5" s="58"/>
+      <c r="N5" s="54"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="58" t="s">
+      <c r="A6" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="54" t="s">
         <v>66</v>
       </c>
       <c r="F6" s="59" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G6" s="60" t="n">
         <v>80</v>
       </c>
-      <c r="H6" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="I6" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="J6" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="K6" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="L6" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="M6" s="55" t="n">
+      <c r="H6" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="J6" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="L6" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="M6" s="56" t="n">
         <v>43876</v>
       </c>
-      <c r="N6" s="58"/>
+      <c r="N6" s="54"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="58" t="s">
+      <c r="A7" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="54" t="s">
         <v>68</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G7" s="60" t="n">
         <v>80</v>
       </c>
-      <c r="H7" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="J7" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="K7" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="L7" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="M7" s="55" t="n">
+      <c r="H7" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="L7" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="M7" s="56" t="n">
         <v>43876</v>
       </c>
-      <c r="N7" s="58"/>
+      <c r="N7" s="54"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="54"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="54"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7056,19 +6995,19 @@
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="2" sqref="B2 B26 B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.4858299595142"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.0283400809717"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="84.8380566801619"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="91.8016194331984"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
@@ -7091,13 +7030,13 @@
         <v>48</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>11</v>
@@ -7107,244 +7046,244 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="58" t="s">
+      <c r="A2" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="H2" s="58" t="s">
+      <c r="E2" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="56" t="n">
+        <v>43876</v>
+      </c>
+      <c r="J2" s="62"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="I2" s="55" t="n">
+      <c r="C3" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="56" t="n">
         <v>43876</v>
       </c>
-      <c r="J2" s="63"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="58" t="s">
+      <c r="J3" s="62"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="58" t="s">
+      <c r="E4" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" s="56" t="n">
+        <v>43876</v>
+      </c>
+      <c r="J4" s="62"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="G3" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="H3" s="58" t="s">
+      <c r="B5" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="55" t="n">
+      <c r="C5" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="56" t="n">
         <v>43876</v>
       </c>
-      <c r="J3" s="63"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="58" t="s">
+      <c r="J5" s="62"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="H4" s="58" t="s">
+      <c r="E6" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="56" t="n">
+        <v>43876</v>
+      </c>
+      <c r="J6" s="62"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="I4" s="55" t="n">
+      <c r="C7" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="56" t="n">
         <v>43876</v>
       </c>
-      <c r="J4" s="63"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="G5" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="H5" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" s="55" t="n">
-        <v>43876</v>
-      </c>
-      <c r="J5" s="63"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="H6" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="I6" s="55" t="n">
-        <v>43876</v>
-      </c>
-      <c r="J6" s="63"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="H7" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" s="55" t="n">
-        <v>43876</v>
-      </c>
-      <c r="J7" s="63"/>
+      <c r="J7" s="62"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="63"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="62"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="63"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="62"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="63"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="62"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="63"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="62"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="63"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="62"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7365,7 +7304,7 @@
   <dimension ref="1:40"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K55" activeCellId="0" sqref="K55"/>
+      <selection pane="topLeft" activeCell="K55" activeCellId="2" sqref="B2 B26 K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -7373,19 +7312,19 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="6" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="6" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="6" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="28.2793522267206"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="6" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="45.417004048583"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="6" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="6" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="6" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="6" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="6" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="6" width="9.10526315789474"/>
@@ -9483,7 +9422,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>40</v>
@@ -10099,7 +10038,7 @@
         <v>78</v>
       </c>
       <c r="K20" s="31" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="L20" s="31"/>
       <c r="M20" s="31" t="s">
@@ -10141,7 +10080,7 @@
         <v>79</v>
       </c>
       <c r="K21" s="31" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="L21" s="32" t="s">
         <v>54</v>
@@ -10916,7 +10855,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+      <selection pane="topLeft" activeCell="B30" activeCellId="2" sqref="B2 B26 B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -10924,248 +10863,248 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="6" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="9" min="2" style="6" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="10" style="6" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="64" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="64" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="65" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="65" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="6" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
+      <c r="A1" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
       <c r="I1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
-      <c r="B2" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67"/>
+      <c r="B2" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0"/>
-      <c r="B3" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67"/>
+      <c r="B3" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
       <c r="I4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
+      <c r="A5" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
       <c r="I5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="70" t="s">
+      <c r="A6" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G6" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="70" t="s">
+      <c r="I6" s="71" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="71" t="n">
+      <c r="A7" s="72" t="n">
         <v>8</v>
       </c>
-      <c r="B7" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="72" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>154</v>
-      </c>
-      <c r="F7" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="G7" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="H7" s="73" t="s">
+      <c r="B7" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="I7" s="73" t="s">
+      <c r="C7" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="H7" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="I7" s="74" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="72" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" s="73" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="71" t="n">
-        <v>9</v>
-      </c>
-      <c r="B8" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="72" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="73" t="s">
-        <v>154</v>
-      </c>
-      <c r="F8" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="H8" s="73" t="s">
+      <c r="C8" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="H8" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="I8" s="74" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="72" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="I8" s="73" t="s">
+      <c r="C9" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="I9" s="74" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="72" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" s="73" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="71" t="n">
-        <v>10</v>
-      </c>
-      <c r="B9" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="72" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="73" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" s="73" t="s">
+      <c r="C10" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="I10" s="74" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="72" t="n">
+        <v>12</v>
+      </c>
+      <c r="B11" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="I9" s="73" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="71" t="n">
-        <v>11</v>
-      </c>
-      <c r="B10" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="72" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="73" t="s">
-        <v>154</v>
-      </c>
-      <c r="F10" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="G10" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="H10" s="73" t="s">
-        <v>157</v>
-      </c>
-      <c r="I10" s="73" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="71" t="n">
-        <v>12</v>
-      </c>
-      <c r="B11" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="72" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" s="73" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="G11" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="H11" s="73" t="s">
-        <v>157</v>
-      </c>
-      <c r="I11" s="73" t="s">
-        <v>157</v>
+      <c r="C11" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="H11" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="I11" s="74" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11176,105 +11115,105 @@
       <c r="E12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="B13" s="70" t="s">
+      <c r="A13" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="70" t="s">
+      <c r="E13" s="71" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="71" t="n">
+      <c r="A14" s="72" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="D14" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="E14" s="72" t="s">
-        <v>154</v>
+      <c r="B14" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="71" t="n">
+      <c r="A15" s="72" t="n">
         <v>9</v>
       </c>
-      <c r="B15" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="E15" s="72" t="s">
-        <v>154</v>
+      <c r="B15" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" s="73" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="71" t="n">
+      <c r="A16" s="72" t="n">
         <v>10</v>
       </c>
-      <c r="B16" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="E16" s="72" t="s">
-        <v>154</v>
+      <c r="B16" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" s="73" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="71" t="n">
+      <c r="A17" s="72" t="n">
         <v>11</v>
       </c>
-      <c r="B17" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="C17" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17" s="72" t="s">
-        <v>154</v>
+      <c r="B17" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="73" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="71" t="n">
+      <c r="A18" s="72" t="n">
         <v>12</v>
       </c>
-      <c r="B18" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" s="72" t="s">
-        <v>154</v>
+      <c r="B18" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="73" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11284,82 +11223,82 @@
       <c r="D19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="68" t="s">
-        <v>159</v>
+      <c r="A20" s="69" t="s">
+        <v>164</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
       <c r="D20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" s="70" t="s">
+      <c r="A21" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="71" t="s">
         <v>79</v>
       </c>
       <c r="D21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="71" t="n">
+      <c r="A22" s="72" t="n">
         <v>8</v>
       </c>
-      <c r="B22" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="72" t="s">
-        <v>160</v>
+      <c r="B22" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="73" t="s">
+        <v>165</v>
       </c>
       <c r="D22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="71" t="n">
+      <c r="A23" s="72" t="n">
         <v>9</v>
       </c>
-      <c r="B23" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="72" t="s">
-        <v>160</v>
+      <c r="B23" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="73" t="s">
+        <v>165</v>
       </c>
       <c r="D23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="71" t="n">
+      <c r="A24" s="72" t="n">
         <v>10</v>
       </c>
-      <c r="B24" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="72" t="s">
-        <v>160</v>
+      <c r="B24" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="73" t="s">
+        <v>165</v>
       </c>
       <c r="D24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="71" t="n">
+      <c r="A25" s="72" t="n">
         <v>11</v>
       </c>
-      <c r="B25" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="72" t="s">
-        <v>160</v>
+      <c r="B25" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="73" t="s">
+        <v>165</v>
       </c>
       <c r="D25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="71" t="n">
+      <c r="A26" s="72" t="n">
         <v>12</v>
       </c>
-      <c r="B26" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="72" t="s">
-        <v>160</v>
+      <c r="B26" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="73" t="s">
+        <v>165</v>
       </c>
       <c r="D26" s="0"/>
     </row>
@@ -11370,7 +11309,7 @@
       <c r="D27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="69" t="s">
         <v>80</v>
       </c>
       <c r="B28" s="0"/>
@@ -11378,87 +11317,87 @@
       <c r="D28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" s="70" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="70" t="s">
+      <c r="A29" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="70" t="s">
+      <c r="D29" s="71" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="71" t="n">
+      <c r="A30" s="72" t="n">
         <v>8</v>
       </c>
-      <c r="B30" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" s="72" t="s">
-        <v>153</v>
+      <c r="B30" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="73" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="71" t="n">
+      <c r="A31" s="72" t="n">
         <v>9</v>
       </c>
-      <c r="B31" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="C31" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="D31" s="72" t="s">
-        <v>153</v>
+      <c r="B31" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="73" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="71" t="n">
+      <c r="A32" s="72" t="n">
         <v>10</v>
       </c>
-      <c r="B32" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="D32" s="72" t="s">
-        <v>153</v>
+      <c r="B32" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="73" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="71" t="n">
+      <c r="A33" s="72" t="n">
         <v>11</v>
       </c>
-      <c r="B33" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="D33" s="72" t="s">
-        <v>153</v>
+      <c r="B33" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="73" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="71" t="n">
+      <c r="A34" s="72" t="n">
         <v>12</v>
       </c>
-      <c r="B34" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="C34" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" s="72" t="s">
-        <v>153</v>
+      <c r="B34" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="73" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11468,95 +11407,95 @@
       <c r="D35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="68" t="s">
-        <v>162</v>
+      <c r="A36" s="69" t="s">
+        <v>167</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
       <c r="D36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="B37" s="70" t="s">
-        <v>163</v>
-      </c>
-      <c r="C37" s="70" t="s">
-        <v>164</v>
-      </c>
-      <c r="D37" s="70" t="s">
-        <v>165</v>
+      <c r="A37" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="71" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="71" t="n">
+      <c r="A38" s="72" t="n">
         <v>8</v>
       </c>
-      <c r="B38" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="C38" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="D38" s="72" t="s">
-        <v>154</v>
+      <c r="B38" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="73" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="71" t="n">
+      <c r="A39" s="72" t="n">
         <v>9</v>
       </c>
-      <c r="B39" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="C39" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" s="72" t="s">
-        <v>154</v>
+      <c r="B39" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="73" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="71" t="n">
+      <c r="A40" s="72" t="n">
         <v>10</v>
       </c>
-      <c r="B40" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="C40" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" s="72" t="s">
-        <v>154</v>
+      <c r="B40" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="73" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="71" t="n">
+      <c r="A41" s="72" t="n">
         <v>11</v>
       </c>
-      <c r="B41" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="C41" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="D41" s="72" t="s">
-        <v>154</v>
+      <c r="B41" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="73" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="71" t="n">
+      <c r="A42" s="72" t="n">
         <v>12</v>
       </c>
-      <c r="B42" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="C42" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" s="72" t="s">
-        <v>154</v>
+      <c r="B42" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="73" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
